--- a/变量字典及字段解释.xlsx
+++ b/变量字典及字段解释.xlsx
@@ -257,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +281,456 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -625,72 +1075,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="159" t="inlineStr">
         <is>
           <t>变量名称</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="160" t="inlineStr">
         <is>
           <t>含义</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="161" t="inlineStr">
         <is>
           <t>creditability</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="162" t="inlineStr">
         <is>
           <t>还款能力</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="161" t="inlineStr">
         <is>
           <t>credit.amount</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="162" t="inlineStr">
         <is>
           <t>借贷金额</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="161" t="inlineStr">
         <is>
           <t>status.of.existing.checking.account</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="162" t="inlineStr">
         <is>
           <t>账户点击状态</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" s="161" t="inlineStr">
         <is>
           <t>test_a</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="162" t="inlineStr">
         <is>
           <t>测试字段1</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="inlineStr">
+      <c r="A6" s="163" t="inlineStr">
         <is>
           <t>test_b</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="164" t="inlineStr">
         <is>
           <t>测试字段2</t>
         </is>

--- a/变量字典及字段解释.xlsx
+++ b/变量字典及字段解释.xlsx
@@ -257,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +281,258 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1075,72 +1327,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="159" t="inlineStr">
+      <c r="A1" s="243" t="inlineStr">
         <is>
           <t>变量名称</t>
         </is>
       </c>
-      <c r="B1" s="160" t="inlineStr">
+      <c r="B1" s="244" t="inlineStr">
         <is>
           <t>含义</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="161" t="inlineStr">
+      <c r="A2" s="245" t="inlineStr">
         <is>
           <t>creditability</t>
         </is>
       </c>
-      <c r="B2" s="162" t="inlineStr">
+      <c r="B2" s="246" t="inlineStr">
         <is>
           <t>还款能力</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="161" t="inlineStr">
+      <c r="A3" s="245" t="inlineStr">
         <is>
           <t>credit.amount</t>
         </is>
       </c>
-      <c r="B3" s="162" t="inlineStr">
+      <c r="B3" s="246" t="inlineStr">
         <is>
           <t>借贷金额</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="161" t="inlineStr">
+      <c r="A4" s="245" t="inlineStr">
         <is>
           <t>status.of.existing.checking.account</t>
         </is>
       </c>
-      <c r="B4" s="162" t="inlineStr">
+      <c r="B4" s="246" t="inlineStr">
         <is>
           <t>账户点击状态</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="161" t="inlineStr">
+      <c r="A5" s="245" t="inlineStr">
         <is>
           <t>test_a</t>
         </is>
       </c>
-      <c r="B5" s="162" t="inlineStr">
+      <c r="B5" s="246" t="inlineStr">
         <is>
           <t>测试字段1</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="163" t="inlineStr">
+      <c r="A6" s="247" t="inlineStr">
         <is>
           <t>test_b</t>
         </is>
       </c>
-      <c r="B6" s="164" t="inlineStr">
+      <c r="B6" s="248" t="inlineStr">
         <is>
           <t>测试字段2</t>
         </is>
